--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15980"/>
+    <workbookView windowWidth="26740" windowHeight="15980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -736,6 +736,2473 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>accuracy / nums of needle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpt-3.5-turbo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4-turbo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deepseek-chat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deepseek-coder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>claude-2.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>claude-3-haiku</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>claude-3-sonnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>claude-3-opus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mixtral-8x7b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mixtral-8x22b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>llama3-70b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="813367284"/>
+        <c:axId val="604984711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="813367284"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604984711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604984711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="813367284"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64135</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="64135" y="3282315"/>
+        <a:ext cx="7956550" cy="4910455"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -997,7 +3464,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1562,5 +4029,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15980"/>
+    <workbookView windowHeight="15920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>gpt-3.5-turbo</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>gpt-4o</t>
-  </si>
-  <si>
-    <t>deepseek-chat</t>
-  </si>
-  <si>
-    <t>deepseek-coder</t>
   </si>
   <si>
     <t>claude-2.1</t>
@@ -46,6 +40,9 @@
     <t>claude-3-opus</t>
   </si>
   <si>
+    <t>claude-3-5-sonnet</t>
+  </si>
+  <si>
     <t>mixtral-8x7b</t>
   </si>
   <si>
@@ -54,15 +51,30 @@
   <si>
     <t>llama3-70b</t>
   </si>
+  <si>
+    <t>deepseek-chat</t>
+  </si>
+  <si>
+    <t>deepseek-coder</t>
+  </si>
+  <si>
+    <t>qwen2-72b</t>
+  </si>
+  <si>
+    <t>qwen2-7b</t>
+  </si>
+  <si>
+    <t>gemma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -75,7 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,6 +108,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -104,6 +124,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -111,15 +156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +172,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -150,6 +196,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -163,56 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,31 +239,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,43 +329,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,73 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,12 +420,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,15 +430,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,6 +452,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -459,36 +477,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,153 +506,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,31 +1006,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="8.00961538461539" customWidth="1"/>
-    <col min="2" max="2" width="13.6057692307692" customWidth="1"/>
-    <col min="3" max="3" width="7.20192307692308" customWidth="1"/>
-    <col min="4" max="4" width="11.2115384615385" customWidth="1"/>
-    <col min="5" max="5" width="7.69230769230769" customWidth="1"/>
-    <col min="6" max="6" width="14.5865384615385" customWidth="1"/>
-    <col min="7" max="7" width="13.9326923076923" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="14.2596153846154" customWidth="1"/>
-    <col min="10" max="10" width="15.5480769230769" customWidth="1"/>
-    <col min="11" max="11" width="12.9807692307692" customWidth="1"/>
-    <col min="12" max="12" width="12.6538461538462" customWidth="1"/>
-    <col min="13" max="13" width="13.625" customWidth="1"/>
-    <col min="14" max="14" width="11.6923076923077" customWidth="1"/>
+    <col min="2" max="2" width="13.6153846153846" customWidth="1"/>
+    <col min="3" max="3" width="6.46153846153846" customWidth="1"/>
+    <col min="4" max="4" width="11.9230769230769" customWidth="1"/>
+    <col min="5" max="5" width="7.30769230769231" customWidth="1"/>
+    <col min="6" max="6" width="10.6923076923077" customWidth="1"/>
+    <col min="7" max="7" width="15.3846153846154" customWidth="1"/>
+    <col min="8" max="8" width="16.3076923076923" customWidth="1"/>
+    <col min="9" max="9" width="14.4615384615385" customWidth="1"/>
+    <col min="10" max="10" width="18.1538461538462" customWidth="1"/>
+    <col min="11" max="11" width="13.3076923076923" customWidth="1"/>
+    <col min="12" max="12" width="14.4615384615385" customWidth="1"/>
+    <col min="13" max="13" width="11.7692307692308" customWidth="1"/>
+    <col min="14" max="14" width="14.3846153846154" customWidth="1"/>
+    <col min="15" max="15" width="15.3846153846154" customWidth="1"/>
+    <col min="16" max="16" width="11.3846153846154" customWidth="1"/>
+    <col min="17" max="17" width="10.2307692307692" customWidth="1"/>
+    <col min="18" max="18" width="8.07692307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:18">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1058,8 +1074,20 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1079,31 +1107,43 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="L2" s="1">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="M2" s="1">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="N2" s="1">
-        <v>0.36</v>
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.78</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1120,34 +1160,46 @@
         <v>0.96</v>
       </c>
       <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.28</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N3" s="1">
         <v>0.34</v>
       </c>
-      <c r="G3" s="1">
+      <c r="O3" s="1">
         <v>0.06</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.28</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.04</v>
+      <c r="P3" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.14</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.82</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1164,34 +1216,46 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N4" s="1">
         <v>0.18</v>
       </c>
-      <c r="G4" s="1">
+      <c r="O4" s="1">
         <v>0.18</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.04</v>
+      <c r="P4" s="1">
+        <v>0.28</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1208,34 +1272,46 @@
         <v>0.96</v>
       </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>0.16</v>
       </c>
-      <c r="G5" s="1">
+      <c r="O5" s="1">
         <v>0.62</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
+      <c r="P5" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.28</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1252,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0.7</v>
@@ -1261,25 +1337,37 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="O6" s="1">
         <v>0.7</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
+      <c r="P6" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>32</v>
       </c>
@@ -1296,34 +1384,46 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>0.04</v>
       </c>
-      <c r="G7" s="1">
+      <c r="O7" s="1">
         <v>0.55</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.14</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.52</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>64</v>
       </c>
@@ -1340,34 +1440,46 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>0.67</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>128</v>
       </c>
@@ -1384,34 +1496,46 @@
         <v>0.98</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>0.98</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.84</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>256</v>
       </c>
@@ -1428,25 +1552,25 @@
         <v>0.96</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="L10" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1454,8 +1578,20 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>512</v>
       </c>
@@ -1472,31 +1608,41 @@
         <v>0.78</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="L11" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -1509,17 +1655,28 @@
       <c r="E12" s="1">
         <v>0.38</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2048</v>
       </c>
@@ -1530,10 +1687,10 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
       <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
         <v>0</v>
       </c>
     </row>
